--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:15:07+00:00</t>
+    <t>2022-05-19T22:22:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:22:45+00:00</t>
+    <t>2022-05-19T22:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:40:57+00:00</t>
+    <t>2022-05-20T01:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T01:59:29+00:00</t>
+    <t>2022-05-20T02:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T02:53:22+00:00</t>
+    <t>2022-05-20T03:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T03:10:08+00:00</t>
+    <t>2022-05-20T22:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T22:14:29+00:00</t>
+    <t>2022-05-21T02:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:00:04+00:00</t>
+    <t>2022-05-21T02:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:55:26+00:00</t>
+    <t>2022-05-21T04:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T04:45:59+00:00</t>
+    <t>2022-05-26T10:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:02:22+00:00</t>
+    <t>2022-05-26T10:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:25:08+00:00</t>
+    <t>2022-06-18T09:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T09:15:45+00:00</t>
+    <t>2022-06-18T22:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T22:14:23+00:00</t>
+    <t>2022-06-19T00:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T00:56:38+00:00</t>
+    <t>2022-06-25T22:06:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-25T22:06:20+00:00</t>
+    <t>2022-06-26T00:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T00:19:47+00:00</t>
+    <t>2022-06-26T03:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T03:25:27+00:00</t>
+    <t>2022-06-26T08:16:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T08:16:20+00:00</t>
+    <t>2022-06-26T13:51:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T13:51:41+00:00</t>
+    <t>2022-06-26T21:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T21:50:55+00:00</t>
+    <t>2022-06-27T01:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:01:02+00:00</t>
+    <t>2022-06-27T01:36:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:36:25+00:00</t>
+    <t>2022-06-27T02:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T02:56:07+00:00</t>
+    <t>2022-06-27T06:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T06:28:37+00:00</t>
+    <t>2022-06-27T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T09:20:01+00:00</t>
+    <t>2022-06-27T10:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T10:19:40+00:00</t>
+    <t>2022-06-27T12:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T12:59:10+00:00</t>
+    <t>2022-06-27T22:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T22:33:31+00:00</t>
+    <t>2022-06-28T04:43:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T04:43:28+00:00</t>
+    <t>2022-06-28T06:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
+++ b/ValueSet-jami-valueSet-ePreDispenseInstruction.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T06:25:36+00:00</t>
+    <t>2022-06-29T08:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
